--- a/data_preprocessing/breitenerhebung/BE_data/BE_BuildingData.xlsx
+++ b/data_preprocessing/breitenerhebung/BE_data/BE_BuildingData.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_1FFCE9767C476636BE2377E0FDF2ADBF4AA6996A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA013645-FBA6-47B5-A36F-CCF235C208B4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +121,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -265,7 +266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -313,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -337,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -387,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -436,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -461,7 +462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -486,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -534,7 +535,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -558,7 +559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -582,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -606,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -630,7 +631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -654,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -678,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -702,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -726,7 +727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -750,7 +751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -774,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -798,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -822,7 +823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -1021,7 +1022,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1312,196 +1313,196 @@
   </cellXfs>
   <cellStyles count="191">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
-    <cellStyle name="Standard 3" xfId="2"/>
-    <cellStyle name="Standard 4" xfId="3"/>
-    <cellStyle name="Standard 5" xfId="4"/>
-    <cellStyle name="style1586414362309" xfId="5"/>
-    <cellStyle name="style1586414362434" xfId="6"/>
-    <cellStyle name="style1586414362512" xfId="7"/>
-    <cellStyle name="style1586414362621" xfId="8"/>
-    <cellStyle name="style1586414362715" xfId="9"/>
-    <cellStyle name="style1586414362824" xfId="10"/>
-    <cellStyle name="style1586414362934" xfId="11"/>
-    <cellStyle name="style1586414363027" xfId="12"/>
-    <cellStyle name="style1586414363137" xfId="13"/>
-    <cellStyle name="style1586414363215" xfId="14"/>
-    <cellStyle name="style1586414363309" xfId="15"/>
-    <cellStyle name="style1586414363402" xfId="16"/>
-    <cellStyle name="style1586414363465" xfId="17"/>
-    <cellStyle name="style1586414363527" xfId="18"/>
-    <cellStyle name="style1586414363605" xfId="19"/>
-    <cellStyle name="style1586414363699" xfId="20"/>
-    <cellStyle name="style1586414363777" xfId="21"/>
-    <cellStyle name="style1586414363918" xfId="22"/>
-    <cellStyle name="style1586414364012" xfId="23"/>
-    <cellStyle name="style1586414364105" xfId="24"/>
-    <cellStyle name="style1586414364183" xfId="25"/>
-    <cellStyle name="style1586414364262" xfId="26"/>
-    <cellStyle name="style1586414364418" xfId="27"/>
-    <cellStyle name="style1586414364480" xfId="28"/>
-    <cellStyle name="style1586414364668" xfId="29"/>
-    <cellStyle name="style1586414364746" xfId="30"/>
-    <cellStyle name="style1586414364824" xfId="31"/>
-    <cellStyle name="style1586414364886" xfId="32"/>
-    <cellStyle name="style1586414364964" xfId="33"/>
-    <cellStyle name="style1586414365074" xfId="34"/>
-    <cellStyle name="style1586414365449" xfId="35"/>
-    <cellStyle name="style1586414365496" xfId="36"/>
-    <cellStyle name="style1586414365558" xfId="37"/>
-    <cellStyle name="style1586414365636" xfId="38"/>
-    <cellStyle name="style1586414365714" xfId="39"/>
-    <cellStyle name="style1586414365792" xfId="40"/>
-    <cellStyle name="style1586414370947" xfId="41"/>
-    <cellStyle name="style1586414371010" xfId="42"/>
-    <cellStyle name="style1601635682789" xfId="43"/>
-    <cellStyle name="style1601635682873" xfId="44"/>
-    <cellStyle name="style1601635682951" xfId="45"/>
-    <cellStyle name="style1601635683058" xfId="46"/>
-    <cellStyle name="style1601635683152" xfId="47"/>
-    <cellStyle name="style1601635683221" xfId="48"/>
-    <cellStyle name="style1601635683290" xfId="49"/>
-    <cellStyle name="style1601635683374" xfId="50"/>
-    <cellStyle name="style1601635683437" xfId="51"/>
-    <cellStyle name="style1601635683521" xfId="52"/>
-    <cellStyle name="style1601635683606" xfId="53"/>
-    <cellStyle name="style1601635683690" xfId="54"/>
-    <cellStyle name="style1601635683751" xfId="55"/>
-    <cellStyle name="style1601635683820" xfId="56"/>
-    <cellStyle name="style1601635683898" xfId="57"/>
-    <cellStyle name="style1601635683952" xfId="58"/>
-    <cellStyle name="style1601635683998" xfId="59"/>
-    <cellStyle name="style1601635684083" xfId="60"/>
-    <cellStyle name="style1601635684137" xfId="61"/>
-    <cellStyle name="style1601635684183" xfId="62"/>
-    <cellStyle name="style1601635684252" xfId="63"/>
-    <cellStyle name="style1601635684335" xfId="64"/>
-    <cellStyle name="style1601635684399" xfId="65"/>
-    <cellStyle name="style1601635684485" xfId="66"/>
-    <cellStyle name="style1601635684569" xfId="67"/>
-    <cellStyle name="style1601635684654" xfId="68"/>
-    <cellStyle name="style1601635684754" xfId="69"/>
-    <cellStyle name="style1601635684823" xfId="70"/>
-    <cellStyle name="style1601635684870" xfId="71"/>
-    <cellStyle name="style1601635684970" xfId="72"/>
-    <cellStyle name="style1601635685039" xfId="73"/>
-    <cellStyle name="style1601635685102" xfId="74"/>
-    <cellStyle name="style1601635685171" xfId="75"/>
-    <cellStyle name="style1601635685224" xfId="76"/>
-    <cellStyle name="style1601635685287" xfId="77"/>
-    <cellStyle name="style1601635685487" xfId="78"/>
-    <cellStyle name="style1601635685541" xfId="79"/>
-    <cellStyle name="style1601635685588" xfId="80"/>
-    <cellStyle name="style1601635685641" xfId="81"/>
-    <cellStyle name="style1601635685719" xfId="82"/>
-    <cellStyle name="style1601635685757" xfId="83"/>
-    <cellStyle name="style1601635685973" xfId="84"/>
-    <cellStyle name="style1601635686058" xfId="85"/>
-    <cellStyle name="style1601635686120" xfId="86"/>
-    <cellStyle name="style1601635686174" xfId="87"/>
-    <cellStyle name="style1601635686243" xfId="88"/>
-    <cellStyle name="style1601635686305" xfId="89"/>
-    <cellStyle name="style1601635686369" xfId="90"/>
-    <cellStyle name="style1601635686428" xfId="91"/>
-    <cellStyle name="style1601635686506" xfId="92"/>
-    <cellStyle name="style1601635686575" xfId="93"/>
-    <cellStyle name="style1601635686628" xfId="94"/>
-    <cellStyle name="style1601635686706" xfId="95"/>
-    <cellStyle name="style1601635686775" xfId="96"/>
-    <cellStyle name="style1601635686844" xfId="97"/>
-    <cellStyle name="style1601635686907" xfId="98"/>
-    <cellStyle name="style1601635686976" xfId="99"/>
-    <cellStyle name="style1601635687045" xfId="100"/>
-    <cellStyle name="style1601635687107" xfId="101"/>
-    <cellStyle name="style1601635687161" xfId="102"/>
-    <cellStyle name="style1601635687230" xfId="103"/>
-    <cellStyle name="style1601635687308" xfId="104"/>
-    <cellStyle name="style1601635687381" xfId="105"/>
-    <cellStyle name="style1601635687446" xfId="106"/>
-    <cellStyle name="style1601635687508" xfId="107"/>
-    <cellStyle name="style1601635687577" xfId="108"/>
-    <cellStyle name="style1601635687646" xfId="109"/>
-    <cellStyle name="style1601635687709" xfId="110"/>
-    <cellStyle name="style1601635687778" xfId="111"/>
-    <cellStyle name="style1601635687847" xfId="112"/>
-    <cellStyle name="style1601635687925" xfId="113"/>
-    <cellStyle name="style1601635687978" xfId="114"/>
-    <cellStyle name="style1601635688047" xfId="115"/>
-    <cellStyle name="style1601635688110" xfId="116"/>
-    <cellStyle name="style1601635688194" xfId="117"/>
-    <cellStyle name="style1601635688232" xfId="118"/>
-    <cellStyle name="style1601635688295" xfId="119"/>
-    <cellStyle name="style1601635688340" xfId="120"/>
-    <cellStyle name="style1601635688403" xfId="121"/>
-    <cellStyle name="style1601635688448" xfId="122"/>
-    <cellStyle name="style1601635688495" xfId="123"/>
-    <cellStyle name="style1601635688548" xfId="124"/>
-    <cellStyle name="style1601635688579" xfId="125"/>
-    <cellStyle name="style1601635688648" xfId="126"/>
-    <cellStyle name="style1601635688711" xfId="127"/>
-    <cellStyle name="style1601635688764" xfId="128"/>
-    <cellStyle name="style1601635688833" xfId="129"/>
-    <cellStyle name="style1601635688896" xfId="130"/>
-    <cellStyle name="style1601635688934" xfId="131"/>
-    <cellStyle name="style1601635688981" xfId="132"/>
-    <cellStyle name="style1601635689034" xfId="133"/>
-    <cellStyle name="style1601635689081" xfId="134"/>
-    <cellStyle name="style1601635689128" xfId="135"/>
-    <cellStyle name="style1601635689181" xfId="136"/>
-    <cellStyle name="style1601635689250" xfId="137"/>
-    <cellStyle name="style1601635689297" xfId="138"/>
-    <cellStyle name="style1601635689341" xfId="139"/>
-    <cellStyle name="style1601635689404" xfId="140"/>
-    <cellStyle name="style1601635689450" xfId="141"/>
-    <cellStyle name="style1601635689513" xfId="142"/>
-    <cellStyle name="style1601635689566" xfId="143"/>
-    <cellStyle name="style1601635689613" xfId="144"/>
-    <cellStyle name="style1601635689667" xfId="145"/>
-    <cellStyle name="style1601635689713" xfId="146"/>
-    <cellStyle name="style1601635689751" xfId="147"/>
-    <cellStyle name="style1601635689798" xfId="148"/>
-    <cellStyle name="style1601635689851" xfId="149"/>
-    <cellStyle name="style1601635689914" xfId="150"/>
-    <cellStyle name="style1601635689967" xfId="151"/>
-    <cellStyle name="style1601635690030" xfId="152"/>
-    <cellStyle name="style1601635690099" xfId="153"/>
-    <cellStyle name="style1601635690152" xfId="154"/>
-    <cellStyle name="style1601635690215" xfId="155"/>
-    <cellStyle name="style1601635690268" xfId="156"/>
-    <cellStyle name="style1601635690315" xfId="157"/>
-    <cellStyle name="style1601635690372" xfId="158"/>
-    <cellStyle name="style1601635690419" xfId="159"/>
-    <cellStyle name="style1601635690484" xfId="160"/>
-    <cellStyle name="style1601635690530" xfId="161"/>
-    <cellStyle name="style1601635690668" xfId="162"/>
-    <cellStyle name="style1601635690715" xfId="163"/>
-    <cellStyle name="style1601635690800" xfId="164"/>
-    <cellStyle name="style1601635690853" xfId="165"/>
-    <cellStyle name="style1601635690916" xfId="166"/>
-    <cellStyle name="style1601635690969" xfId="167"/>
-    <cellStyle name="style1601635691016" xfId="168"/>
-    <cellStyle name="style1601635691069" xfId="169"/>
-    <cellStyle name="style1601635691286" xfId="170"/>
-    <cellStyle name="style1601635691342" xfId="171"/>
-    <cellStyle name="style1601635691389" xfId="172"/>
-    <cellStyle name="style1601635691435" xfId="173"/>
-    <cellStyle name="style1601635692422" xfId="174"/>
-    <cellStyle name="style1601635692472" xfId="175"/>
-    <cellStyle name="style1601635692518" xfId="176"/>
-    <cellStyle name="style1601635692556" xfId="177"/>
-    <cellStyle name="style1601635692619" xfId="178"/>
-    <cellStyle name="style1601635692656" xfId="179"/>
-    <cellStyle name="style1601635692719" xfId="180"/>
-    <cellStyle name="style1601635692757" xfId="181"/>
-    <cellStyle name="style1601635692804" xfId="182"/>
-    <cellStyle name="style1601635692841" xfId="183"/>
-    <cellStyle name="style1601635692888" xfId="184"/>
-    <cellStyle name="style1601635692942" xfId="185"/>
-    <cellStyle name="style1601635692988" xfId="186"/>
-    <cellStyle name="style1601635693042" xfId="187"/>
-    <cellStyle name="style1601635693089" xfId="188"/>
-    <cellStyle name="style1601635693142" xfId="189"/>
-    <cellStyle name="style1601635693189" xfId="190"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Standard 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Standard 5" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="style1586414362309" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="style1586414362434" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="style1586414362512" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="style1586414362621" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="style1586414362715" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="style1586414362824" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="style1586414362934" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="style1586414363027" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="style1586414363137" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="style1586414363215" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="style1586414363309" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="style1586414363402" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="style1586414363465" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="style1586414363527" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="style1586414363605" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="style1586414363699" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="style1586414363777" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="style1586414363918" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="style1586414364012" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="style1586414364105" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="style1586414364183" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="style1586414364262" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="style1586414364418" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="style1586414364480" xfId="28" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="style1586414364668" xfId="29" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="style1586414364746" xfId="30" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="style1586414364824" xfId="31" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="style1586414364886" xfId="32" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="style1586414364964" xfId="33" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="style1586414365074" xfId="34" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="style1586414365449" xfId="35" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="style1586414365496" xfId="36" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="style1586414365558" xfId="37" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="style1586414365636" xfId="38" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="style1586414365714" xfId="39" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="style1586414365792" xfId="40" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="style1586414370947" xfId="41" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="style1586414371010" xfId="42" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="style1601635682789" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="style1601635682873" xfId="44" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="style1601635682951" xfId="45" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="style1601635683058" xfId="46" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="style1601635683152" xfId="47" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="style1601635683221" xfId="48" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="style1601635683290" xfId="49" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="style1601635683374" xfId="50" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="style1601635683437" xfId="51" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="style1601635683521" xfId="52" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="style1601635683606" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="style1601635683690" xfId="54" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="style1601635683751" xfId="55" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="style1601635683820" xfId="56" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="style1601635683898" xfId="57" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="style1601635683952" xfId="58" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="style1601635683998" xfId="59" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="style1601635684083" xfId="60" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="style1601635684137" xfId="61" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="style1601635684183" xfId="62" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="style1601635684252" xfId="63" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="style1601635684335" xfId="64" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="style1601635684399" xfId="65" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="style1601635684485" xfId="66" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="style1601635684569" xfId="67" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="style1601635684654" xfId="68" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="style1601635684754" xfId="69" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="style1601635684823" xfId="70" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="style1601635684870" xfId="71" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="style1601635684970" xfId="72" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="style1601635685039" xfId="73" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="style1601635685102" xfId="74" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="style1601635685171" xfId="75" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="style1601635685224" xfId="76" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="style1601635685287" xfId="77" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="style1601635685487" xfId="78" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="style1601635685541" xfId="79" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="style1601635685588" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="style1601635685641" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="style1601635685719" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="style1601635685757" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="style1601635685973" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="style1601635686058" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="style1601635686120" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="style1601635686174" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="style1601635686243" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="style1601635686305" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="style1601635686369" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="style1601635686428" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="style1601635686506" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="style1601635686575" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="style1601635686628" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="style1601635686706" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="style1601635686775" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="style1601635686844" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="style1601635686907" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="style1601635686976" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="style1601635687045" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="style1601635687107" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="style1601635687161" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="style1601635687230" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="style1601635687308" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="style1601635687381" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="style1601635687446" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="style1601635687508" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="style1601635687577" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="style1601635687646" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="style1601635687709" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="style1601635687778" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="style1601635687847" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="style1601635687925" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="style1601635687978" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="style1601635688047" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="style1601635688110" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="style1601635688194" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="style1601635688232" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="style1601635688295" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="style1601635688340" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="style1601635688403" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="style1601635688448" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="style1601635688495" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="style1601635688548" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="style1601635688579" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="style1601635688648" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="style1601635688711" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="style1601635688764" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="style1601635688833" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="style1601635688896" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="style1601635688934" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="style1601635688981" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="style1601635689034" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="style1601635689081" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="style1601635689128" xfId="135" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="style1601635689181" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="style1601635689250" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="style1601635689297" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="style1601635689341" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="style1601635689404" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="style1601635689450" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="style1601635689513" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="style1601635689566" xfId="143" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="style1601635689613" xfId="144" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="style1601635689667" xfId="145" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="style1601635689713" xfId="146" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="style1601635689751" xfId="147" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="style1601635689798" xfId="148" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="style1601635689851" xfId="149" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="style1601635689914" xfId="150" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="style1601635689967" xfId="151" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="style1601635690030" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="style1601635690099" xfId="153" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="style1601635690152" xfId="154" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="style1601635690215" xfId="155" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="style1601635690268" xfId="156" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="style1601635690315" xfId="157" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="style1601635690372" xfId="158" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="style1601635690419" xfId="159" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="style1601635690484" xfId="160" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="style1601635690530" xfId="161" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="style1601635690668" xfId="162" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="style1601635690715" xfId="163" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="style1601635690800" xfId="164" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="style1601635690853" xfId="165" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="style1601635690916" xfId="166" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="style1601635690969" xfId="167" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="style1601635691016" xfId="168" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="style1601635691069" xfId="169" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="style1601635691286" xfId="170" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="style1601635691342" xfId="171" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="style1601635691389" xfId="172" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="style1601635691435" xfId="173" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="style1601635692422" xfId="174" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="style1601635692472" xfId="175" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="style1601635692518" xfId="176" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="style1601635692556" xfId="177" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="style1601635692619" xfId="178" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="style1601635692656" xfId="179" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="style1601635692719" xfId="180" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="style1601635692757" xfId="181" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="style1601635692804" xfId="182" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="style1601635692841" xfId="183" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="style1601635692888" xfId="184" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="style1601635692942" xfId="185" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="style1601635692988" xfId="186" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="style1601635693042" xfId="187" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="style1601635693089" xfId="188" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="style1601635693142" xfId="189" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="style1601635693189" xfId="190" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1778,11 +1779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AG12" sqref="AG12"/>
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2000,6 +2001,9 @@
       <c r="AA2">
         <v>0</v>
       </c>
+      <c r="AB2" s="11">
+        <v>11</v>
+      </c>
       <c r="AC2">
         <v>1</v>
       </c>
@@ -2107,6 +2111,9 @@
       <c r="AA3">
         <v>0</v>
       </c>
+      <c r="AB3" s="11">
+        <v>25</v>
+      </c>
       <c r="AC3">
         <v>1</v>
       </c>
@@ -2214,6 +2221,9 @@
       <c r="AA4">
         <v>1</v>
       </c>
+      <c r="AB4" s="11">
+        <v>33</v>
+      </c>
       <c r="AC4">
         <v>2</v>
       </c>
@@ -2321,6 +2331,9 @@
       <c r="AA5">
         <v>0</v>
       </c>
+      <c r="AB5" s="11">
+        <v>54</v>
+      </c>
       <c r="AC5">
         <v>4</v>
       </c>
@@ -2428,6 +2441,9 @@
       <c r="AA6">
         <v>2</v>
       </c>
+      <c r="AB6" s="11">
+        <v>66</v>
+      </c>
       <c r="AC6">
         <v>4</v>
       </c>
@@ -2534,6 +2550,9 @@
       </c>
       <c r="AA7">
         <v>1</v>
+      </c>
+      <c r="AB7" s="11">
+        <v>99</v>
       </c>
       <c r="AC7">
         <v>3</v>

--- a/data_preprocessing/breitenerhebung/BE_data/BE_BuildingData.xlsx
+++ b/data_preprocessing/breitenerhebung/BE_data/BE_BuildingData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_1FFCE9767C476636BE2377E0FDF2ADBF4AA6996A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA013645-FBA6-47B5-A36F-CCF235C208B4}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_1FFCE9767C476636BE2377E0FDF2ADBF4AA6996A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1191F6DB-BC86-4AA8-8069-3B278857FC80}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -679,7 +679,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -703,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -727,7 +727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -751,7 +751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -775,7 +775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -799,7 +799,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="AH1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -823,7 +823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -852,7 +852,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>scr_gebaeude_id</t>
   </si>
@@ -1005,9 +1005,6 @@
   </si>
   <si>
     <t>3.1</t>
-  </si>
-  <si>
-    <t>f_ant_beheizt</t>
   </si>
   <si>
     <t>2,0</t>
@@ -1780,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ20"/>
+  <dimension ref="A1:AI20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AC12" sqref="AC12"/>
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1804,12 +1801,11 @@
     <col min="21" max="21" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="12.33203125" customWidth="1"/>
     <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.88671875" style="11"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
-    <col min="33" max="33" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.5546875" customWidth="1"/>
+    <col min="32" max="32" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1891,35 +1887,32 @@
       <c r="AA1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="11" t="s">
-        <v>51</v>
+      <c r="AB1" t="s">
+        <v>15</v>
       </c>
       <c r="AC1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AE1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AF1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AJ1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2001,35 +1994,32 @@
       <c r="AA2">
         <v>0</v>
       </c>
-      <c r="AB2" s="11">
-        <v>11</v>
+      <c r="AB2">
+        <v>1</v>
       </c>
       <c r="AC2">
         <v>1</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE2">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG2">
+        <v>-8</v>
+      </c>
+      <c r="AH2" s="2">
         <v>1</v>
       </c>
-      <c r="AE2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF2">
-        <v>4</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>-8</v>
       </c>
-      <c r="AI2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ2">
-        <v>-8</v>
-      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2111,35 +2101,32 @@
       <c r="AA3">
         <v>0</v>
       </c>
-      <c r="AB3" s="11">
-        <v>25</v>
+      <c r="AB3">
+        <v>1</v>
       </c>
       <c r="AC3">
         <v>1</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE3">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG3">
+        <v>13</v>
+      </c>
+      <c r="AH3" s="2">
         <v>1</v>
       </c>
-      <c r="AE3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF3">
-        <v>4</v>
-      </c>
-      <c r="AG3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AH3">
-        <v>13</v>
-      </c>
-      <c r="AI3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
+      <c r="AI3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2221,35 +2208,32 @@
       <c r="AA4">
         <v>1</v>
       </c>
-      <c r="AB4" s="11">
-        <v>33</v>
+      <c r="AB4">
+        <v>2</v>
       </c>
       <c r="AC4">
-        <v>2</v>
-      </c>
-      <c r="AD4">
         <v>8</v>
       </c>
-      <c r="AE4" s="12" t="s">
-        <v>52</v>
+      <c r="AD4" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
       </c>
       <c r="AF4">
+        <v>314</v>
+      </c>
+      <c r="AG4">
         <v>1</v>
       </c>
-      <c r="AG4">
-        <v>314</v>
-      </c>
       <c r="AH4">
+        <v>5</v>
+      </c>
+      <c r="AI4">
         <v>1</v>
       </c>
-      <c r="AI4">
-        <v>5</v>
-      </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2331,35 +2315,32 @@
       <c r="AA5">
         <v>0</v>
       </c>
-      <c r="AB5" s="11">
-        <v>54</v>
+      <c r="AB5">
+        <v>4</v>
       </c>
       <c r="AC5">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE5">
+        <v>3</v>
+      </c>
+      <c r="AF5">
+        <v>509</v>
+      </c>
+      <c r="AG5">
+        <v>21</v>
+      </c>
+      <c r="AH5">
+        <v>6</v>
+      </c>
+      <c r="AI5">
         <v>4</v>
       </c>
-      <c r="AD5">
-        <v>8</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF5">
-        <v>3</v>
-      </c>
-      <c r="AG5">
-        <v>509</v>
-      </c>
-      <c r="AH5">
-        <v>21</v>
-      </c>
-      <c r="AI5">
-        <v>6</v>
-      </c>
-      <c r="AJ5">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2441,35 +2422,32 @@
       <c r="AA6">
         <v>2</v>
       </c>
-      <c r="AB6" s="11">
-        <v>66</v>
+      <c r="AB6">
+        <v>4</v>
       </c>
       <c r="AC6">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE6">
         <v>4</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
+        <v>218</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6">
         <v>3</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF6">
-        <v>4</v>
-      </c>
-      <c r="AG6">
-        <v>218</v>
-      </c>
-      <c r="AH6">
-        <v>2</v>
       </c>
       <c r="AI6">
         <v>3</v>
       </c>
-      <c r="AJ6">
-        <v>3</v>
-      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2551,70 +2529,67 @@
       <c r="AA7">
         <v>1</v>
       </c>
-      <c r="AB7" s="11">
-        <v>99</v>
+      <c r="AB7">
+        <v>3</v>
       </c>
       <c r="AC7">
-        <v>3</v>
-      </c>
-      <c r="AD7">
         <v>1</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="AE7">
+        <v>4</v>
+      </c>
       <c r="AF7">
-        <v>4</v>
+        <v>549</v>
       </c>
       <c r="AG7">
-        <v>549</v>
+        <v>-7</v>
       </c>
       <c r="AH7">
+        <v>7</v>
+      </c>
+      <c r="AI7">
         <v>-7</v>
       </c>
-      <c r="AI7">
-        <v>7</v>
-      </c>
-      <c r="AJ7">
-        <v>-7</v>
-      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="N9" s="11"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="N10" s="11"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="N11" s="11"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="N12" s="11"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="J13" s="11"/>
       <c r="N13" s="11"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
       <c r="J14" s="11"/>
       <c r="N14" s="11"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="J16" s="11"/>
     </row>
